--- a/biology/Histoire de la zoologie et de la botanique/Alípio_de_Miranda-Ribeiro/Alípio_de_Miranda-Ribeiro.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alípio_de_Miranda-Ribeiro/Alípio_de_Miranda-Ribeiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Al%C3%ADpio_de_Miranda-Ribeiro</t>
+          <t>Alípio_de_Miranda-Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alípio do Miranda-Ribeiro est un zoologiste brésilien, né le 21 février 1874 à Rio Preto (Minas Gerais), au Brésil, et mort le 8 janvier 1939 à Rio de Janeiro.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al%C3%ADpio_de_Miranda-Ribeiro</t>
+          <t>Alípio_de_Miranda-Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miranda-Ribeiro se passionne dès son jeune âge pour l'histoire naturelle et, adolescent, traduit en portugais l'œuvre de Buffon. Il étudie la médecine à Rio de Janeiro et, en 1894, devient préparateur au Muséum national de Rio de Janeiro. Il va grimper divers échelons au sein de cet établissement avant de le diriger : en 1899, il est secrétaire et, en 1929, il devient professeur et directeur du département de zoologie, fonction qu'il occupe jusqu'à sa mort.
 Il explore à plusieurs reprises l'Amazonie et participe notamment à la première mise en place du télégraphe à travers l’Amazonie et le Mato Grosso, expédition conduite par le colonel Cândido Rondon (1865-1958). En 1911, après avoir visiter les muséums de l’Europe et des États-Unis et étudier leurs programmes pêcheries, il fonde l'Inspection des pêches, le premier service officiel consacré à la pêche au Brésil.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al%C3%ADpio_de_Miranda-Ribeiro</t>
+          <t>Alípio_de_Miranda-Ribeiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Todirostre de Ribeiro (Hemitriccus obsoletus)</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al%C3%ADpio_de_Miranda-Ribeiro</t>
+          <t>Alípio_de_Miranda-Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1918 : Dous generos e tres especies novas de peixes Brasileiros determinados nas collecções do Museu Paulista. Rev. Mus. Paulista, v. 10 : 787–791, 1 pl.</t>
         </is>
